--- a/app/data/departments/chemistry.xlsx
+++ b/app/data/departments/chemistry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lambe\OneDrive\Documents\Courses\2023-2024\Semester 2\COMP3901\FST-Degree-Planner\app\data\departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B192C4-BCCC-4768-B680-7A47C98BB03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7C3CF7-F47E-479C-9D40-DB877422810D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Courses" sheetId="1" r:id="rId1"/>
@@ -3807,7 +3807,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3897,6 +3897,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6572,8 +6578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C339E790-08D1-48E4-8A62-BD62B396E99C}">
   <dimension ref="A1:BC66"/>
   <sheetViews>
-    <sheetView topLeftCell="I2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BA4" sqref="BA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6701,10 +6707,10 @@
       </c>
       <c r="AX1" s="28"/>
       <c r="AY1" s="28"/>
-      <c r="BA1" s="28" t="s">
+      <c r="BA1" s="30" t="s">
         <v>431</v>
       </c>
-      <c r="BB1" s="28"/>
+      <c r="BB1" s="30"/>
       <c r="BC1" s="27"/>
     </row>
     <row r="2" spans="1:55" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6822,10 +6828,10 @@
       <c r="AY2" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="BA2" s="5" t="s">
+      <c r="BA2" s="31" t="s">
         <v>365</v>
       </c>
-      <c r="BB2" s="5" t="s">
+      <c r="BB2" s="31" t="s">
         <v>273</v>
       </c>
     </row>
@@ -8256,6 +8262,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="BA1:BB1"/>
     <mergeCell ref="AS1:AU1"/>
     <mergeCell ref="AW1:AY1"/>
@@ -8265,12 +8277,6 @@
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AO1:AQ1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8280,8 +8286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF76B52-49B6-4F93-92A0-DD582AC3432F}">
   <dimension ref="A1:AY66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView topLeftCell="AH1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9788,11 +9794,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="V1:W1"/>
     <mergeCell ref="AS1:AU1"/>
     <mergeCell ref="AW1:AY1"/>
     <mergeCell ref="Q1:S1"/>
@@ -9802,6 +9803,11 @@
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AO1:AQ1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9811,7 +9817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6ECCCE-2871-4348-9FD3-0384EB00EDC9}">
   <dimension ref="A1:AY66"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
@@ -10790,6 +10796,12 @@
     <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="AS1:AU1"/>
     <mergeCell ref="AW1:AY1"/>
     <mergeCell ref="Y1:Z1"/>
@@ -10798,12 +10810,6 @@
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AO1:AQ1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
